--- a/Dados/Dados apresentação 22-08.xlsx
+++ b/Dados/Dados apresentação 22-08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vibraenergia-my.sharepoint.com/personal/caiofernandes_vibraenergia_com_br/Documents/Documentos/testeS4-main/Caso run/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vibraenergia-my.sharepoint.com/personal/josemichael_vibraenergia_com_br/Documents/Documentos/GitHub/testeS4/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF29D3F6-DF1E-42AF-973A-BCAFDB44CB0C}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E33BC99C-6945-4FEA-891D-BD9D54600526}"/>
   <bookViews>
-    <workbookView xWindow="-3015" yWindow="-11490" windowWidth="24300" windowHeight="7740" xr2:uid="{01F98A4B-07BB-472F-82FB-B59EC1EF1266}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{01F98A4B-07BB-472F-82FB-B59EC1EF1266}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
-  <si>
-    <t>Pedido Origen</t>
-  </si>
-  <si>
-    <t>Novo Pedido</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>TIP DE PEDIDO</t>
   </si>
@@ -80,9 +74,6 @@
     <t>Data de Remessa</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>ZD</t>
   </si>
   <si>
@@ -98,9 +89,6 @@
     <t>BACUB Base de Cubatão</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>01.008.166</t>
   </si>
   <si>
@@ -116,20 +104,32 @@
     <t>Preço</t>
   </si>
   <si>
-    <t>TIP DE CONTRATO</t>
-  </si>
-  <si>
     <t>ZDDR</t>
   </si>
   <si>
-    <t>NOVO CONTRATO</t>
+    <t>TP CONTRATO</t>
+  </si>
+  <si>
+    <t>NV CONTRATO</t>
+  </si>
+  <si>
+    <t>NV PEDIDO</t>
+  </si>
+  <si>
+    <t>MIGO</t>
+  </si>
+  <si>
+    <t>MIRO</t>
+  </si>
+  <si>
+    <t>Pedido Origem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,8 +145,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,12 +170,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,9 +200,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,104 +535,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8A3E43-7AED-4335-9954-9B9CBBFD2381}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="P1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="S1" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>4503273185</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>6</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>10001859</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1">
         <v>5821</v>
@@ -644,47 +648,45 @@
         <v>2000</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1">
         <v>602.13800000000003</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="N2" s="1">
         <v>50</v>
       </c>
       <c r="O2" s="2">
         <v>45899</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>6</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>4503274856</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1">
         <v>10068989</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1">
         <v>5821</v>
@@ -696,30 +698,29 @@
         <v>2000</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K3" s="1">
         <v>120</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="1"/>
       <c r="N3" s="1">
         <v>60</v>
       </c>
       <c r="O3" s="2">
         <v>45899</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>7</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="L8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Dados/Dados apresentação 22-08.xlsx
+++ b/Dados/Dados apresentação 22-08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vibraenergia-my.sharepoint.com/personal/josemichael_vibraenergia_com_br/Documents/Documentos/GitHub/testeS4/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E33BC99C-6945-4FEA-891D-BD9D54600526}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3A17001-B7E3-5605-A007-67720D0FFEE6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{01F98A4B-07BB-472F-82FB-B59EC1EF1266}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>TIP DE PEDIDO</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Pedido Origem</t>
+  </si>
+  <si>
+    <t>ipo documento</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8A3E43-7AED-4335-9954-9B9CBBFD2381}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -707,7 +712,7 @@
         <v>18</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N3" s="1">
         <v>60</v>

--- a/Dados/Dados apresentação 22-08.xlsx
+++ b/Dados/Dados apresentação 22-08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vibraenergia-my.sharepoint.com/personal/josemichael_vibraenergia_com_br/Documents/Documentos/GitHub/testeS4/Dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vibraenergia-my.sharepoint.com/personal/caiofernandes_vibraenergia_com_br/Documents/Documentos/testeS4/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3A17001-B7E3-5605-A007-67720D0FFEE6}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{858893E2-B412-411C-AF97-8AF5F88A5E5C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{01F98A4B-07BB-472F-82FB-B59EC1EF1266}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7785" xr2:uid="{01F98A4B-07BB-472F-82FB-B59EC1EF1266}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -540,32 +540,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8A3E43-7AED-4335-9954-9B9CBBFD2381}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -624,7 +624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4503273185</v>
       </c>
@@ -670,11 +670,13 @@
       <c r="O2" s="2">
         <v>45899</v>
       </c>
-      <c r="P2" s="1"/>
+      <c r="P2" s="1">
+        <v>4600244207</v>
+      </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4503274856</v>
       </c>
@@ -724,7 +726,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L8" s="5"/>
     </row>
   </sheetData>

--- a/Dados/Dados apresentação 22-08.xlsx
+++ b/Dados/Dados apresentação 22-08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vibraenergia-my.sharepoint.com/personal/caiofernandes_vibraenergia_com_br/Documents/Documentos/testeS4/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{858893E2-B412-411C-AF97-8AF5F88A5E5C}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1878311-3027-41EF-9933-2238E35560CB}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7785" xr2:uid="{01F98A4B-07BB-472F-82FB-B59EC1EF1266}"/>
   </bookViews>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8A3E43-7AED-4335-9954-9B9CBBFD2381}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,9 +671,11 @@
         <v>45899</v>
       </c>
       <c r="P2" s="1">
-        <v>4600244207</v>
-      </c>
-      <c r="Q2" s="1"/>
+        <v>4600244209</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>4503342003</v>
+      </c>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -722,8 +724,12 @@
       <c r="O3" s="2">
         <v>45899</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="P3" s="1">
+        <v>4600244210</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>4503342004</v>
+      </c>
       <c r="R3" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">

--- a/Dados/Dados apresentação 22-08.xlsx
+++ b/Dados/Dados apresentação 22-08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vibraenergia-my.sharepoint.com/personal/josemichael_vibraenergia_com_br/Documents/Documentos/GitHub/testeS4/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3A17001-B7E3-5605-A007-67720D0FFEE6}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9416700-E5BD-4C05-A2E3-BEA91C1F0759}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{01F98A4B-07BB-472F-82FB-B59EC1EF1266}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>TIP DE PEDIDO</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>Pedido Origem</t>
-  </si>
-  <si>
-    <t>ipo documento</t>
   </si>
 </sst>
 </file>
@@ -540,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8A3E43-7AED-4335-9954-9B9CBBFD2381}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -664,14 +661,16 @@
       <c r="M2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="1">
-        <v>50</v>
-      </c>
+      <c r="N2" s="1"/>
       <c r="O2" s="2">
         <v>45899</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="P2" s="1">
+        <v>4600244205</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>4503342001</v>
+      </c>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -712,16 +711,18 @@
         <v>18</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="1">
-        <v>60</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="N3" s="1"/>
       <c r="O3" s="2">
         <v>45899</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="P3" s="1">
+        <v>4600244206</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>4503342002</v>
+      </c>
       <c r="R3" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">

--- a/Dados/Dados apresentação 22-08.xlsx
+++ b/Dados/Dados apresentação 22-08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vibraenergia-my.sharepoint.com/personal/caiofernandes_vibraenergia_com_br/Documents/Documentos/testeS4/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1878311-3027-41EF-9933-2238E35560CB}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCC68978-362D-4927-92F2-E8093F5A2BD1}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="7785" xr2:uid="{01F98A4B-07BB-472F-82FB-B59EC1EF1266}"/>
+    <workbookView xWindow="23415" yWindow="1020" windowWidth="24915" windowHeight="7785" xr2:uid="{01F98A4B-07BB-472F-82FB-B59EC1EF1266}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>TIP DE PEDIDO</t>
   </si>
@@ -77,9 +77,6 @@
     <t>ZD</t>
   </si>
   <si>
-    <t>ZCTP</t>
-  </si>
-  <si>
     <t>Z13</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>BAPLAN Base de Paulínia</t>
   </si>
   <si>
-    <t>A003</t>
-  </si>
-  <si>
     <t>Z10</t>
   </si>
   <si>
@@ -125,7 +119,7 @@
     <t>Pedido Origem</t>
   </si>
   <si>
-    <t>ipo documento</t>
+    <t>Z000</t>
   </si>
 </sst>
 </file>
@@ -540,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8A3E43-7AED-4335-9954-9B9CBBFD2381}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,10 +561,10 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -603,7 +597,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>10</v>
@@ -612,16 +606,16 @@
         <v>11</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -638,10 +632,10 @@
         <v>10001859</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="1">
         <v>5821</v>
@@ -653,29 +647,25 @@
         <v>2000</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1">
         <v>602.13800000000003</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="1">
-        <v>50</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="N2" s="1"/>
       <c r="O2" s="2">
         <v>45899</v>
       </c>
       <c r="P2" s="1">
-        <v>4600244209</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>4503342003</v>
-      </c>
+        <v>4600244273</v>
+      </c>
+      <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -692,10 +682,10 @@
         <v>10068989</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1">
         <v>5821</v>
@@ -707,29 +697,23 @@
         <v>2000</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="1">
         <v>120</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="1">
-        <v>60</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="N3" s="1"/>
       <c r="O3" s="2">
         <v>45899</v>
       </c>
-      <c r="P3" s="1">
-        <v>4600244210</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>4503342004</v>
-      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">

--- a/Dados/Dados apresentação 22-08.xlsx
+++ b/Dados/Dados apresentação 22-08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vibraenergia-my.sharepoint.com/personal/josemichael_vibraenergia_com_br/Documents/Documentos/GitHub/testeS4/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9416700-E5BD-4C05-A2E3-BEA91C1F0759}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{174B5A2A-7DB7-4EED-8078-8C3ED8E1FB01}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{01F98A4B-07BB-472F-82FB-B59EC1EF1266}"/>
+    <workbookView xWindow="9615" yWindow="3555" windowWidth="14340" windowHeight="7245" xr2:uid="{01F98A4B-07BB-472F-82FB-B59EC1EF1266}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -537,32 +537,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8A3E43-7AED-4335-9954-9B9CBBFD2381}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -621,7 +621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4503273185</v>
       </c>
@@ -666,14 +666,14 @@
         <v>45899</v>
       </c>
       <c r="P2" s="1">
-        <v>4600244205</v>
+        <v>4600244240</v>
       </c>
       <c r="Q2" s="1">
-        <v>4503342001</v>
+        <v>4503342033</v>
       </c>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4503274856</v>
       </c>
@@ -718,14 +718,14 @@
         <v>45899</v>
       </c>
       <c r="P3" s="1">
-        <v>4600244206</v>
+        <v>4600244241</v>
       </c>
       <c r="Q3" s="1">
-        <v>4503342002</v>
+        <v>4503342035</v>
       </c>
       <c r="R3" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L8" s="5"/>
     </row>
   </sheetData>

--- a/Dados/Dados apresentação 22-08.xlsx
+++ b/Dados/Dados apresentação 22-08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vibraenergia-my.sharepoint.com/personal/josemichael_vibraenergia_com_br/Documents/Documentos/GitHub/testeS4/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{174B5A2A-7DB7-4EED-8078-8C3ED8E1FB01}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EAC1112-2613-4352-93F5-D551611220EA}"/>
   <bookViews>
-    <workbookView xWindow="9615" yWindow="3555" windowWidth="14340" windowHeight="7245" xr2:uid="{01F98A4B-07BB-472F-82FB-B59EC1EF1266}"/>
+    <workbookView xWindow="4305" yWindow="2580" windowWidth="23250" windowHeight="7245" xr2:uid="{01F98A4B-07BB-472F-82FB-B59EC1EF1266}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>TIP DE PEDIDO</t>
   </si>
@@ -77,9 +77,6 @@
     <t>ZD</t>
   </si>
   <si>
-    <t>ZCTP</t>
-  </si>
-  <si>
     <t>Z13</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>BAPLAN Base de Paulínia</t>
   </si>
   <si>
-    <t>A003</t>
-  </si>
-  <si>
     <t>Z10</t>
   </si>
   <si>
@@ -123,13 +117,16 @@
   </si>
   <si>
     <t>Pedido Origem</t>
+  </si>
+  <si>
+    <t>Z000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +146,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -201,6 +204,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8A3E43-7AED-4335-9954-9B9CBBFD2381}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +553,7 @@
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
@@ -564,10 +570,10 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -600,7 +606,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>10</v>
@@ -609,16 +615,16 @@
         <v>11</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -635,10 +641,10 @@
         <v>10001859</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" s="1">
         <v>5821</v>
@@ -650,26 +656,26 @@
         <v>2000</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1">
         <v>602.13800000000003</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1"/>
-      <c r="O2" s="2">
+      <c r="O2" s="6">
         <v>45899</v>
       </c>
       <c r="P2" s="1">
-        <v>4600244240</v>
+        <v>4600244281</v>
       </c>
       <c r="Q2" s="1">
-        <v>4503342033</v>
+        <v>4503342051</v>
       </c>
       <c r="R2" s="1"/>
     </row>
@@ -687,10 +693,10 @@
         <v>10068989</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1">
         <v>5821</v>
@@ -702,26 +708,26 @@
         <v>2000</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="1">
         <v>120</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="2">
         <v>45899</v>
       </c>
       <c r="P3" s="1">
-        <v>4600244241</v>
+        <v>4600244282</v>
       </c>
       <c r="Q3" s="1">
-        <v>4503342035</v>
+        <v>4503342052</v>
       </c>
       <c r="R3" s="1"/>
     </row>
@@ -729,7 +735,9 @@
       <c r="L8" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Pública</oddFooter>
   </headerFooter>

--- a/Dados/Dados apresentação 22-08.xlsx
+++ b/Dados/Dados apresentação 22-08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vibraenergia-my.sharepoint.com/personal/caiofernandes_vibraenergia_com_br/Documents/Documentos/testeS4/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48FE72C3-A02D-40E3-A435-57913ACEF46C}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68A3C6EC-1783-4620-A367-F6B0312039B1}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="23415" yWindow="1020" windowWidth="24915" windowHeight="7785" xr2:uid="{01F98A4B-07BB-472F-82FB-B59EC1EF1266}"/>
+    <workbookView xWindow="22410" yWindow="1290" windowWidth="24915" windowHeight="7785" xr2:uid="{01F98A4B-07BB-472F-82FB-B59EC1EF1266}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,8 +662,12 @@
       <c r="O2" s="2">
         <v>45899</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="P2" s="1">
+        <v>4600244283</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>4503342086</v>
+      </c>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -710,8 +714,12 @@
       <c r="O3" s="2">
         <v>45899</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="P3" s="1">
+        <v>4600244284</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>4503342087</v>
+      </c>
       <c r="R3" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">

--- a/Dados/Dados apresentação 22-08.xlsx
+++ b/Dados/Dados apresentação 22-08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vibraenergia-my.sharepoint.com/personal/josemichael_vibraenergia_com_br/Documents/Documentos/GitHub/testeS4/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EAC1112-2613-4352-93F5-D551611220EA}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36EE171A-B187-4D7B-A0C4-6AD49BC0557A}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="2580" windowWidth="23250" windowHeight="7245" xr2:uid="{01F98A4B-07BB-472F-82FB-B59EC1EF1266}"/>
+    <workbookView xWindow="9630" yWindow="3405" windowWidth="15975" windowHeight="7245" xr2:uid="{01F98A4B-07BB-472F-82FB-B59EC1EF1266}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -543,29 +543,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8A3E43-7AED-4335-9954-9B9CBBFD2381}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:Q3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -672,10 +674,10 @@
         <v>45899</v>
       </c>
       <c r="P2" s="1">
-        <v>4600244281</v>
+        <v>4600244316</v>
       </c>
       <c r="Q2" s="1">
-        <v>4503342051</v>
+        <v>4503342084</v>
       </c>
       <c r="R2" s="1"/>
     </row>
@@ -724,10 +726,10 @@
         <v>45899</v>
       </c>
       <c r="P3" s="1">
-        <v>4600244282</v>
+        <v>4600244317</v>
       </c>
       <c r="Q3" s="1">
-        <v>4503342052</v>
+        <v>4503342085</v>
       </c>
       <c r="R3" s="1"/>
     </row>

--- a/Dados/Dados apresentação 22-08.xlsx
+++ b/Dados/Dados apresentação 22-08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vibraenergia-my.sharepoint.com/personal/caiofernandes_vibraenergia_com_br/Documents/Documentos/testeS4/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68A3C6EC-1783-4620-A367-F6B0312039B1}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26A4AC83-EEDB-4711-9741-C93EB33B3E86}"/>
   <bookViews>
-    <workbookView xWindow="22410" yWindow="1290" windowWidth="24915" windowHeight="7785" xr2:uid="{01F98A4B-07BB-472F-82FB-B59EC1EF1266}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="345" windowWidth="20655" windowHeight="5970" xr2:uid="{01F98A4B-07BB-472F-82FB-B59EC1EF1266}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -213,6 +213,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8A3E43-7AED-4335-9954-9B9CBBFD2381}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,8 +669,8 @@
       <c r="P2" s="1">
         <v>4600244283</v>
       </c>
-      <c r="Q2" s="1">
-        <v>4503342086</v>
+      <c r="Q2">
+        <v>4503342107</v>
       </c>
       <c r="R2" s="1"/>
     </row>
@@ -718,7 +722,7 @@
         <v>4600244284</v>
       </c>
       <c r="Q3" s="1">
-        <v>4503342087</v>
+        <v>4503342108</v>
       </c>
       <c r="R3" s="1"/>
     </row>

--- a/Dados/Dados apresentação 22-08.xlsx
+++ b/Dados/Dados apresentação 22-08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vibraenergia-my.sharepoint.com/personal/josemichael_vibraenergia_com_br/Documents/Documentos/GitHub/testeS4/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36EE171A-B187-4D7B-A0C4-6AD49BC0557A}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3432422-EDAA-4394-AF26-6F26210B95A8}"/>
   <bookViews>
-    <workbookView xWindow="9630" yWindow="3405" windowWidth="15975" windowHeight="7245" xr2:uid="{01F98A4B-07BB-472F-82FB-B59EC1EF1266}"/>
+    <workbookView minimized="1" xWindow="2100" yWindow="3270" windowWidth="15975" windowHeight="7245" xr2:uid="{01F98A4B-07BB-472F-82FB-B59EC1EF1266}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,6 +205,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -543,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8A3E43-7AED-4335-9954-9B9CBBFD2381}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,12 +677,12 @@
         <v>45899</v>
       </c>
       <c r="P2" s="1">
-        <v>4600244316</v>
+        <v>4600244328</v>
       </c>
       <c r="Q2" s="1">
-        <v>4503342084</v>
-      </c>
-      <c r="R2" s="1"/>
+        <v>4503342111</v>
+      </c>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -726,10 +729,10 @@
         <v>45899</v>
       </c>
       <c r="P3" s="1">
-        <v>4600244317</v>
+        <v>4600244329</v>
       </c>
       <c r="Q3" s="1">
-        <v>4503342085</v>
+        <v>4503342112</v>
       </c>
       <c r="R3" s="1"/>
     </row>

--- a/Dados/Dados apresentação 22-08.xlsx
+++ b/Dados/Dados apresentação 22-08.xlsx
@@ -2,41 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vibraenergia-my.sharepoint.com/personal/josemichael_vibraenergia_com_br/Documents/Documentos/GitHub/testeS4/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="8_{8D930324-2335-4E6D-A8B1-E3276BA0CE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3432422-EDAA-4394-AF26-6F26210B95A8}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_DD86054FCB6C7C71BB0FC43E4D6E2FB64806CF2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58AED8C0-7EB6-4926-AC2D-44940DFA9203}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2100" yWindow="3270" windowWidth="15975" windowHeight="7245" xr2:uid="{01F98A4B-07BB-472F-82FB-B59EC1EF1266}"/>
+    <workbookView xWindow="2100" yWindow="3270" windowWidth="15975" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+  <si>
+    <t>Pedido Origem</t>
+  </si>
+  <si>
+    <t>Preço</t>
+  </si>
   <si>
     <t>TIP DE PEDIDO</t>
   </si>
@@ -68,15 +58,33 @@
     <t>CENTRO</t>
   </si>
   <si>
+    <t>TP CONTRATO</t>
+  </si>
+  <si>
     <t>ITEM CONT.</t>
   </si>
   <si>
     <t>Data de Remessa</t>
   </si>
   <si>
+    <t>NV CONTRATO</t>
+  </si>
+  <si>
+    <t>NV PEDIDO</t>
+  </si>
+  <si>
+    <t>MIGO</t>
+  </si>
+  <si>
+    <t>MIRO</t>
+  </si>
+  <si>
     <t>ZD</t>
   </si>
   <si>
+    <t>Z000</t>
+  </si>
+  <si>
     <t>Z13</t>
   </si>
   <si>
@@ -86,47 +94,32 @@
     <t>BACUB Base de Cubatão</t>
   </si>
   <si>
+    <t>ZDDR</t>
+  </si>
+  <si>
+    <t>5014660856</t>
+  </si>
+  <si>
+    <t>5600000372</t>
+  </si>
+  <si>
+    <t>Z10</t>
+  </si>
+  <si>
     <t>01.008.166</t>
   </si>
   <si>
     <t>BAPLAN Base de Paulínia</t>
   </si>
   <si>
-    <t>Z10</t>
-  </si>
-  <si>
-    <t>Preço</t>
-  </si>
-  <si>
-    <t>ZDDR</t>
-  </si>
-  <si>
-    <t>TP CONTRATO</t>
-  </si>
-  <si>
-    <t>NV CONTRATO</t>
-  </si>
-  <si>
-    <t>NV PEDIDO</t>
-  </si>
-  <si>
-    <t>MIGO</t>
-  </si>
-  <si>
-    <t>MIRO</t>
-  </si>
-  <si>
-    <t>Pedido Origem</t>
-  </si>
-  <si>
-    <t>Z000</t>
+    <t>5014660857</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,12 +139,6 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -543,11 +530,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8A3E43-7AED-4335-9954-9B9CBBFD2381}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,67 +556,66 @@
     <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -640,16 +626,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1">
         <v>10001859</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1">
         <v>5821</v>
@@ -661,28 +647,33 @@
         <v>2000</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1">
         <v>602.13800000000003</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="6">
         <v>45899</v>
       </c>
       <c r="P2" s="1">
-        <v>4600244328</v>
+        <v>4600244336</v>
       </c>
       <c r="Q2" s="1">
-        <v>4503342111</v>
-      </c>
-      <c r="R2" s="7"/>
+        <v>4503342117</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -692,16 +683,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1">
         <v>10068989</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G3" s="1">
         <v>5821</v>
@@ -713,38 +704,39 @@
         <v>2000</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1">
         <v>120</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="2">
         <v>45899</v>
       </c>
       <c r="P3" s="1">
-        <v>4600244329</v>
+        <v>4600244337</v>
       </c>
       <c r="Q3" s="1">
-        <v>4503342112</v>
-      </c>
-      <c r="R3" s="1"/>
+        <v>4503342118</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L8" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Pública</oddFooter>
+    <oddFooter>&amp;C&amp;"Calibri"&amp;10 &amp;K000000_x000D_# Pública</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/Dados/Dados apresentação 22-08.xlsx
+++ b/Dados/Dados apresentação 22-08.xlsx
@@ -1,152 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vibraenergia-my.sharepoint.com/personal/josemichael_vibraenergia_com_br/Documents/Documentos/GitHub/testeS4/Dados/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_DD86054FCB6C7C71BB0FC43E4D6E2FB64806CF2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58AED8C0-7EB6-4926-AC2D-44940DFA9203}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="3270" windowWidth="15975" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="1" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7270" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
-  <si>
-    <t>Pedido Origem</t>
-  </si>
-  <si>
-    <t>Preço</t>
-  </si>
-  <si>
-    <t>TIP DE PEDIDO</t>
-  </si>
-  <si>
-    <t>FORNECEDOR</t>
-  </si>
-  <si>
-    <t>COND.PAG</t>
-  </si>
-  <si>
-    <t>INCOTERM</t>
-  </si>
-  <si>
-    <t>ORG. COMPRAS</t>
-  </si>
-  <si>
-    <t>GP. COMPRADOR</t>
-  </si>
-  <si>
-    <t>EMPRESA</t>
-  </si>
-  <si>
-    <t>MATERIAL</t>
-  </si>
-  <si>
-    <t>QNTD</t>
-  </si>
-  <si>
-    <t>CENTRO</t>
-  </si>
-  <si>
-    <t>TP CONTRATO</t>
-  </si>
-  <si>
-    <t>ITEM CONT.</t>
-  </si>
-  <si>
-    <t>Data de Remessa</t>
-  </si>
-  <si>
-    <t>NV CONTRATO</t>
-  </si>
-  <si>
-    <t>NV PEDIDO</t>
-  </si>
-  <si>
-    <t>MIGO</t>
-  </si>
-  <si>
-    <t>MIRO</t>
-  </si>
-  <si>
-    <t>ZD</t>
-  </si>
-  <si>
-    <t>Z000</t>
-  </si>
-  <si>
-    <t>Z13</t>
-  </si>
-  <si>
-    <t>01.000.075</t>
-  </si>
-  <si>
-    <t>BACUB Base de Cubatão</t>
-  </si>
-  <si>
-    <t>ZDDR</t>
-  </si>
-  <si>
-    <t>5014660856</t>
-  </si>
-  <si>
-    <t>5600000372</t>
-  </si>
-  <si>
-    <t>Z10</t>
-  </si>
-  <si>
-    <t>01.008.166</t>
-  </si>
-  <si>
-    <t>BAPLAN Base de Paulínia</t>
-  </si>
-  <si>
-    <t>5014660857</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -177,40 +74,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -530,213 +486,294 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col width="14.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="6.453125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="14.81640625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="14.54296875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="11.453125" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="11.1796875" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="16.26953125" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="17.81640625" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="10.1796875" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="10.26953125" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="8" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="23.453125" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="14.453125" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="11.81640625" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="17.453125" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="14.81640625" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="11.54296875" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="11" bestFit="1" customWidth="1" min="18" max="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Pedido Origem</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Preço</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>TIP DE PEDIDO</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>FORNECEDOR</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>COND.PAG</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>INCOTERM</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>ORG. COMPRAS</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>GP. COMPRADOR</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>EMPRESA</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>MATERIAL</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>QNTD</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>CENTRO</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>TP CONTRATO</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>ITEM CONT.</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Data de Remessa</t>
+        </is>
+      </c>
+      <c r="P1" s="4" t="inlineStr">
+        <is>
+          <t>NV CONTRATO</t>
+        </is>
+      </c>
+      <c r="Q1" s="4" t="inlineStr">
+        <is>
+          <t>NV PEDIDO</t>
+        </is>
+      </c>
+      <c r="R1" s="4" t="inlineStr">
+        <is>
+          <t>MIGO</t>
+        </is>
+      </c>
+      <c r="S1" s="4" t="inlineStr">
+        <is>
+          <t>MIRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>4503273185</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>ZD</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>10001859</v>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Z000</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Z13</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>5821</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>951</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>01.000.075</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>602.138</v>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>BACUB Base de Cubatão</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>ZDDR</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="n"/>
+      <c r="O2" s="6" t="n">
+        <v>45899</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>4600244393</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>4503342124</v>
+      </c>
+      <c r="R2" s="7" t="inlineStr">
+        <is>
+          <t>5014660870</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>5600000380</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>4503274856</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>18</v>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>ZD</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>10068989</v>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>Z000</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Z10</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>5821</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>918</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>01.008.166</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>BAPLAN Base de Paulínia</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>ZDDR</t>
+        </is>
+      </c>
+      <c r="N3" s="1" t="n"/>
+      <c r="O3" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>4600244394</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>4503342125</v>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>5014660871</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>4503273185</v>
-      </c>
-      <c r="B2" s="1">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10001859</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1">
-        <v>5821</v>
-      </c>
-      <c r="H2" s="1">
-        <v>951</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1">
-        <v>602.13800000000003</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="6">
-        <v>45899</v>
-      </c>
-      <c r="P2" s="1">
-        <v>4600244336</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>4503342117</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>4503274856</v>
-      </c>
-      <c r="B3" s="1">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1">
-        <v>10068989</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1">
-        <v>5821</v>
-      </c>
-      <c r="H3" s="1">
-        <v>918</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="1">
-        <v>120</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="2">
-        <v>45899</v>
-      </c>
-      <c r="P3" s="1">
-        <v>4600244337</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>4503342118</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L8" s="5"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8">
+      <c r="L8" s="5" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Calibri"&amp;10 &amp;K000000_x000D_# Pública</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Calibri"&amp;10 &amp;K000000_x000d_# Pública</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/Dados/Dados apresentação 22-08.xlsx
+++ b/Dados/Dados apresentação 22-08.xlsx
@@ -1,49 +1,149 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vibraenergia-my.sharepoint.com/personal/josemichael_vibraenergia_com_br/Documents/Documentos/GitHub/testeS4/Dados/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_A2754458CB6C7C71BB0FC493ADAF006EC98C4D9C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC7C5C1F-5BB8-4665-BEAD-5F8C6D3D7D67}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="1" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7270" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView minimized="1" xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+  <si>
+    <t>Pedido Origem</t>
+  </si>
+  <si>
+    <t>Preço</t>
+  </si>
+  <si>
+    <t>TIP DE PEDIDO</t>
+  </si>
+  <si>
+    <t>FORNECEDOR</t>
+  </si>
+  <si>
+    <t>COND.PAG</t>
+  </si>
+  <si>
+    <t>INCOTERM</t>
+  </si>
+  <si>
+    <t>ORG. COMPRAS</t>
+  </si>
+  <si>
+    <t>GP. COMPRADOR</t>
+  </si>
+  <si>
+    <t>EMPRESA</t>
+  </si>
+  <si>
+    <t>MATERIAL</t>
+  </si>
+  <si>
+    <t>QNTD</t>
+  </si>
+  <si>
+    <t>CENTRO</t>
+  </si>
+  <si>
+    <t>TP CONTRATO</t>
+  </si>
+  <si>
+    <t>ITEM CONT.</t>
+  </si>
+  <si>
+    <t>Data de Remessa</t>
+  </si>
+  <si>
+    <t>NV CONTRATO</t>
+  </si>
+  <si>
+    <t>NV PEDIDO</t>
+  </si>
+  <si>
+    <t>MIGO</t>
+  </si>
+  <si>
+    <t>MIRO</t>
+  </si>
+  <si>
+    <t>ZD</t>
+  </si>
+  <si>
+    <t>Z000</t>
+  </si>
+  <si>
+    <t>Z13</t>
+  </si>
+  <si>
+    <t>01.000.075</t>
+  </si>
+  <si>
+    <t>BACUB Base de Cubatão</t>
+  </si>
+  <si>
+    <t>ZDDR</t>
+  </si>
+  <si>
+    <t>4600244398</t>
+  </si>
+  <si>
+    <t>Z10</t>
+  </si>
+  <si>
+    <t>01.008.166</t>
+  </si>
+  <si>
+    <t>BAPLAN Base de Paulínia</t>
+  </si>
+  <si>
+    <t>4600244399</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -74,99 +174,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -486,294 +527,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="14.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="6.453125" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="14.81640625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="14.54296875" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="11.453125" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="11.1796875" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="16.26953125" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="17.81640625" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="10.1796875" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="10.26953125" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="8" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="23.453125" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="14.453125" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="11.81640625" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="17.453125" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="14.81640625" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="11.54296875" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="11" bestFit="1" customWidth="1" min="18" max="19"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Pedido Origem</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Preço</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>TIP DE PEDIDO</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>FORNECEDOR</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>COND.PAG</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>INCOTERM</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>ORG. COMPRAS</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>GP. COMPRADOR</t>
-        </is>
-      </c>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>EMPRESA</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="inlineStr">
-        <is>
-          <t>MATERIAL</t>
-        </is>
-      </c>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>QNTD</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="inlineStr">
-        <is>
-          <t>CENTRO</t>
-        </is>
-      </c>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>TP CONTRATO</t>
-        </is>
-      </c>
-      <c r="N1" s="3" t="inlineStr">
-        <is>
-          <t>ITEM CONT.</t>
-        </is>
-      </c>
-      <c r="O1" s="3" t="inlineStr">
-        <is>
-          <t>Data de Remessa</t>
-        </is>
-      </c>
-      <c r="P1" s="4" t="inlineStr">
-        <is>
-          <t>NV CONTRATO</t>
-        </is>
-      </c>
-      <c r="Q1" s="4" t="inlineStr">
-        <is>
-          <t>NV PEDIDO</t>
-        </is>
-      </c>
-      <c r="R1" s="4" t="inlineStr">
-        <is>
-          <t>MIGO</t>
-        </is>
-      </c>
-      <c r="S1" s="4" t="inlineStr">
-        <is>
-          <t>MIRO</t>
-        </is>
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>4503273185</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>ZD</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1">
         <v>10001859</v>
       </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>Z000</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>Z13</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="n">
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1">
         <v>5821</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="1">
         <v>951</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="1">
         <v>2000</v>
       </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>01.000.075</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>602.138</v>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>BACUB Base de Cubatão</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>ZDDR</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="n"/>
-      <c r="O2" s="6" t="n">
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1">
+        <v>602.13800000000003</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="6">
         <v>45899</v>
       </c>
-      <c r="P2" s="1" t="n">
-        <v>4600244393</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>4503342124</v>
-      </c>
-      <c r="R2" s="7" t="inlineStr">
-        <is>
-          <t>5014660870</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>5600000380</t>
-        </is>
-      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="7"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>4503274856</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>ZD</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="n">
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1">
         <v>10068989</v>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>Z000</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>Z10</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="n">
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1">
         <v>5821</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="1">
         <v>918</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="1">
         <v>2000</v>
       </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>01.008.166</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="n">
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1">
         <v>120</v>
       </c>
-      <c r="L3" s="1" t="inlineStr">
-        <is>
-          <t>BAPLAN Base de Paulínia</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>ZDDR</t>
-        </is>
-      </c>
-      <c r="N3" s="1" t="n"/>
-      <c r="O3" s="2" t="n">
+      <c r="L3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="2">
         <v>45899</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <v>4600244394</v>
-      </c>
-      <c r="Q3" s="1" t="n">
-        <v>4503342125</v>
-      </c>
-      <c r="R3" s="1" t="inlineStr">
-        <is>
-          <t>5014660871</t>
-        </is>
-      </c>
+      <c r="P3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
     </row>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8">
-      <c r="L8" s="5" t="n"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="L8" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
-    <oddHeader/>
-    <oddFooter>&amp;C&amp;"Calibri"&amp;10 &amp;K000000_x000d_# Pública</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddFooter>&amp;C&amp;"Calibri"&amp;10 &amp;K000000_x000D_# Pública</oddFooter>
   </headerFooter>
 </worksheet>
 </file>